--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM-2NA, Paulo Rob.-CAM-2NA, Paulo Rob.-CAM-2NA, Paulo Rob.-CAM-2NA]</t>
+          <t>[Allan Cupertino-Instalções Elétricas-2NA, Allan Cupertino-Instalções Elétricas-2NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Leandro-Sistemas de Refrigeração-2NA, Leandro-Sistemas de Refrigeração-2NA, Leandro-Sistemas de Refrigeração-2NA, Leandro-Sistemas de Refrigeração-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Cleidson-Automação Industrial-2NA]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro-Hidráulica-2NA, João Paulo-Lab. Circuitos Elétricos-2NA, João Paulo-Lab. Circuitos Elétricos-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+          <t>[João Paulo-Lab. Circuitos Elétricos-2NA, -, Leandro-Sistemas de Refrigeração-2NA, -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Eletro-Hidráulica-2NA, Guilherme-Eletropneumática-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem-2NA, Cláudio-Tecnologia da Soldagem-2NA, Cláudio-Tecnologia da Soldagem-2NA, Cláudio-Tecnologia da Soldagem-2NA]</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas-2NA, Allan Cupertino-Lab. De Máquinas elétricas-2NA]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica-2NA, Emerson-Eletrônica Básica-2NA, Emerson-Eletrônica Básica-2NA, Emerson-Eletrônica Básica-2NA]</t>
+          <t>[-, -, -, Leandro-Sistemas de Refrigeração-2NA]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Eletro-Hidráulica-2NA, Guilherme-Eletropneumática-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletropneumática-2NA, Allan Cupertino-Lab. Máquinas Elétricas-2NA, Guilherme-Eletropneumática-2NA, Allan Cupertino-Lab. Máquinas Elétricas-2NA]</t>
+          <t>[João Paulo-Lab. Circuitos Elétricos-2NA, -, Cleidson-Automação Industrial-2NA, -]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>[Weslei-CAD-2NA, Weslei-CAD-2NA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Cleidson-Automação Industrial-2NA, Cleidson-Automação Industrial-2NA, Cleidson-Automação Industrial-2NA, Cleidson-Automação Industrial-2NA]</t>
+          <t>[Emerson-Eletrônica Básica-2NA, Emerson-Eletrônica Básica-2NA]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas-2NA, Allan Cupertino-Instalções Elétricas-2NA, Allan Cupertino-Instalções Elétricas-2NA, Allan Cupertino-Instalções Elétricas-2NA]</t>
+          <t>[Guilherme-Eletro-Hidráulica-2NA, Allan Cupertino-Instalções Elétricas-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Cleidson-Automação Industrial-2NA, -]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro-Hidráulica-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+          <t>[Weslei-CAD-2NA, Weslei-CAD-2NA]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Eletrônica Básica-2NA, Leandro-Sistemas de Refrigeração-2NA]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Leandro-Sistemas de Refrigeração-2NA]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Weslei-CAD-2NA, Weslei-CAD-2NA, Weslei-CAD-2NA, Weslei-CAD-2NA]</t>
+          <t>[Allan Cupertino-Instalções Elétricas-2NA, Guilherme-Eletropneumática-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas-2NA, Allan Cupertino-Instalções Elétricas-2NA]</t>
+          <t>[Emerson-Eletrônica Básica-2NA, Allan Cupertino-Instalções Elétricas-2NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, -, -, Cleidson-Automação Industrial-2NA]</t>
+          <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. Circuitos Elétricos-2NA, -, Leandro-Sistemas de Refrigeração-2NA, -]</t>
+          <t>[Paulo Rob.-CAM-2NA, Leandro-Sistemas de Refrigeração-2NA, -, -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro-Hidráulica-2NA, Guilherme-Eletropneumática-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
+          <t>[-, Allan Cupertino-Instalções Elétricas-2NA, -, -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas-2NA, Allan Cupertino-Lab. De Máquinas elétricas-2NA]</t>
+          <t>[Allan Cupertino-Instalções Elétricas-2NA, Emerson-Eletrônica Básica-2NA]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>[Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Andre B.-Circuitos Elétricos 2-</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[-, -, -, Leandro-Sistemas de Refrigeração-2NA]</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétricas-</t>
+          <t>[Paulo Rob.-CAM-2NA, Leandro-Sistemas de Refrigeração-2NA, -, -]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro-Hidráulica-2NA, Guilherme-Eletropneumática-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
+          <t>[-, Cleidson-Automação Industrial-2NA, -, -]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. Circuitos Elétricos-2NA, -, Cleidson-Automação Industrial-2NA, -]</t>
+          <t>[João Paulo-Lab. Circuitos Elétricos-2NA, Allan Cupertino-Instalções Elétricas-2NA]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>[Cláudio-Tecnologia da Soldagem-2NA, Leandro-Sistemas de Refrigeração-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Allan Cupertino-Máquinas Elétricas-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>[Weslei-CAD-2NA, Weslei-CAD-2NA]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[Emerson-Eletrônica Básica-2NA, Emerson-Eletrônica Básica-2NA]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Allan Cupertino-Máquinas Elétricas-</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro-Hidráulica-2NA, Allan Cupertino-Instalções Elétricas-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
+          <t>[-, Cleidson-Automação Industrial-2NA, -, -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-, -, Cleidson-Automação Industrial-2NA, -]</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas-2NA, Allan Cupertino-Lab. De Máquinas elétricas-2NA]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>[Cláudio-Tecnologia da Soldagem-2NA, Leandro-Sistemas de Refrigeração-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Allan Cupertino-Máquinas Elétricas-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>[Weslei-CAD-2NA, Weslei-CAD-2NA]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[Emerson-Eletrônica Básica-2NA, Leandro-Sistemas de Refrigeração-2NA]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[-, -, -, Leandro-Sistemas de Refrigeração-2NA]</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas-2NA, Guilherme-Eletropneumática-2NA, Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA]</t>
+          <t>[-, Cleidson-Automação Industrial-2NA, -, -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica-2NA, Allan Cupertino-Instalções Elétricas-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM-2NA, Leandro-Sistemas de Refrigeração-2NA, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, Allan Cupertino-Instalções Elétricas-2NA, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas-2NA, Emerson-Eletrônica Básica-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem-2NA, Paulo Rob.-CAM-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétricos 2-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM-2NA, Leandro-Sistemas de Refrigeração-2NA, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, Cleidson-Automação Industrial-2NA, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. Circuitos Elétricos-2NA, Allan Cupertino-Instalções Elétricas-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem-2NA, Leandro-Sistemas de Refrigeração-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétricas-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Weslei-CAD-2NA, Weslei-CAD-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, Cleidson-Automação Industrial-2NA, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,31 +1081,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas-2NA, Allan Cupertino-Lab. De Máquinas elétricas-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem-2NA, Leandro-Sistemas de Refrigeração-2NA, Guilherme-Eletropneumática-2NA, Guilherme-Eletro-Hidráulica-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétricas-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Weslei-CAD-2NA, Weslei-CAD-2NA]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, Cleidson-Automação Industrial-2NA, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-CAM, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Leandro-Sistemas de Refrigeração]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Allan Cupertino-Lab. De Máquinas elétricas]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Eletro, Cleidson-Automação Industrial, Guilherme-Eletropneumática, Paulo Rob.-CAM]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Eletrônica Básica, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-CAD, Weslei-CAD]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Paulo-Lab. Circuitos Elétricos]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Eletro, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Eletro, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Leandro-Sistemas de Refrigeração]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Weslei-CAD]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-CAD, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-Eletro, Cleidson-Automação Industrial, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM]</t>
+          <t>[-, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Leandro-Sistemas de Refrigeração]</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[Weslei-CAD, Weslei-CAD]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, Allan Cupertino-Lab. De Máquinas elétricas]</t>
+          <t>[Paulo Rob.-CAM, Guilherme-Eletro, Guilherme-Eletropneumática, Cleidson-Automação Industrial]</t>
         </is>
       </c>
     </row>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, Cleidson-Automação Industrial, Guilherme-Eletropneumática, Paulo Rob.-CAM]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Emerson-Eletrônica Básica]</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Lab. Circuitos Elétricos]</t>
+          <t>[Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração, Guilherme-Eletropneumática, Cleidson-Automação Industrial]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, -]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Leandro-Sistemas de Refrigeração]</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
+          <t>[Emerson-Eletrônica Básica, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-, Weslei-CAD]</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Weslei-CAD, Allan Cupertino-Instalções Elétricas]</t>
+          <t>[Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem, Cleidson-Automação Industrial]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, Cleidson-Automação Industrial, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+          <t>[-, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, Leandro-Sistemas de Refrigeração, Guilherme-Eletropneumática]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, Allan Cupertino-Instalções Elétricas]</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, Guilherme-Eletropneumática, Cleidson-Automação Industrial]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, Allan Cupertino-Instalções Elétricas]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[Guilherme-Eletro, Cláudio-Tecnologia da Soldagem, Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+          <t>[Weslei-CAD, Weslei-CAD]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Weslei-CAD, Weslei-CAD]</t>
+          <t>[João Paulo-Lab. Circuitos Elétricos, Allan Cupertino-Lab. De Máquinas elétricas]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Guilherme-Eletro, Guilherme-Eletropneumática, Cleidson-Automação Industrial]</t>
+          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Guilherme-Eletro, Guilherme-Eletropneumática]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[Guilherme-Eletro, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática, Paulo Rob.-CAM]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+          <t>[Weslei-CAD, Weslei-CAD]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Weslei-CAD, Weslei-CAD]</t>
+          <t>[Emerson-Eletrônica Básica, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração, Guilherme-Eletropneumática, Cleidson-Automação Industrial]</t>
+          <t>[Leandro-Sistemas de Refrigeração, Cleidson-Automação Industrial, Guilherme-Eletro, Guilherme-Eletropneumática]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Allan Cupertino-Máquinas Elétri</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>[Emerson-Eletrônica Básica, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Andre B.-Circuitos Elétrico</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem, Cleidson-Automação Industrial]</t>
+          <t>[Leandro-Sistemas de Refrigeração, Cleidson-Automação Industrial, Cláudio-Tecnologia da Soldagem, Paulo Rob.-CAM]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM]</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, Emerson-Eletrônica Básica]</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, Leandro-Sistemas de Refrigeração, Guilherme-Eletropneumática]</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, Guilherme-Eletropneumática, Cleidson-Automação Industrial]</t>
+          <t>[Leandro-Sistemas de Refrigeração, Cleidson-Automação Industrial, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Allan Cupertino-Instalções Elétricas]</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, Cláudio-Tecnologia da Soldagem, Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração]</t>
+          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Weslei-CAD, Weslei-CAD]</t>
+          <t>[Cleidson-Automação Industrial, Guilherme-Eletrohidráulica, -, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. Circuitos Elétricos, Allan Cupertino-Lab. De Máquinas elétricas]</t>
+          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Guilherme-Eletro, Guilherme-Eletropneumática]</t>
+          <t>[Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração, Guilherme-Eletrohidráulica, -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática, Paulo Rob.-CAM]</t>
+          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Weslei-CAD, Weslei-CAD]</t>
+          <t>[Cleidson-Automação Industrial, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Paulo Rob.-CAM]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Emerson-Eletrônica Básica]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Leandro-Sistemas de Refrigeração, Cleidson-Automação Industrial, Guilherme-Eletro, Guilherme-Eletropneumática]</t>
+          <t>[Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM, Guilherme-Eletrohidráulica, -]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>[Cleidson-Automação Industrial, Guilherme-Eletropneumática, -, -]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Emerson-Eletrônica Básica]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Leandro-Sistemas de Refrigeração, Cleidson-Automação Industrial, Cláudio-Tecnologia da Soldagem, Paulo Rob.-CAM]</t>
+          <t>[Guilherme-Eletropneumática, Paulo Rob.-CAM, -, -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Allan Cupertino-Instalções Elétricas]</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>[Cleidson-Automação Industrial, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Leandro-Sistemas de Refrigeração]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Leandro-Sistemas de Refrigeração, Cleidson-Automação Industrial, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem]</t>
+          <t>[-, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem, Guilherme-Eletrohidráulica]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>[-, -, Guilherme-Eletrohidráulica, Leandro-Sistemas de Refrigeração]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletrohidráulica]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[Cleidson-Automação Industrial, Guilherme-Eletrohidráulica, -, Cláudio-Tecnologia da Soldagem]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Leandro-Sistemas de Refrigeração, Guilherme-Eletrohidráulica, -]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>[-, -, Guilherme-Eletrohidráulica, Leandro-Sistemas de Refrigeração]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[Cleidson-Automação Industrial, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Paulo Rob.-CAM]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[Leandro-Sistemas de Refrigeração, Paulo Rob.-CAM, Guilherme-Eletrohidráulica, -]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>[-, Guilherme-Eletropneumática, -, Leandro-Sistemas de Refrigeração]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[Cleidson-Automação Industrial, Guilherme-Eletropneumática, -, -]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletropneumática, Paulo Rob.-CAM, -, -]</t>
+          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>[Guilherme-Eletrohidráulica, -, -, Leandro-Sistemas de Refrigeração]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[Cleidson-Automação Industrial, Guilherme-Eletropneumática, Cláudio-Tecnologia da Soldagem, Leandro-Sistemas de Refrigeração]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[-, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem, Guilherme-Eletrohidráulica]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, -, Guilherme-Eletrohidráulica, Leandro-Sistemas de Refrigeração]</t>
+          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletrohidráulica]</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
+          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, -, Guilherme-Eletrohidráulica, Leandro-Sistemas de Refrigeração]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Allan Cupertino-Instalções Elétricas]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
+          <t>Andre B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
+          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-, Guilherme-Eletropneumática, -, Leandro-Sistemas de Refrigeração]</t>
+          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+          <t>[João Paulo-Lab. Circuitos Elétricos, Allan Cupertino-Lab. De Máquinas elétricas]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
+          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletrohidráulica, -, -, Leandro-Sistemas de Refrigeração]</t>
+          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Lab. De Máquinas elétricas, João Paulo-Lab. Circuitos Elétricos]</t>
+          <t>[João Paulo-Lab. Circuitos Elétricos, Allan Cupertino-Lab. De Máquinas elétricas]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Cleidson-Automação Industrial, Paulo Rob.-CAM, Cláudio-Tecnologia da Soldagem, Guilherme-Eletropneumática]</t>
+          <t>Allan Cupertino-Máquinas Elétri</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
+          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
+          <t>Renan Campos-Máquinas Elétri</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
+          <t>[Anderson J.-CAM, Guilherme-Eletropneumática, Cleidson-Automação Industrial, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>[-, -, -, Cleidson-Automação Industrial]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-CAD, Renan-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
+          <t>[Guilherme-Eletro, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
+          <t>André B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Emerson-Eletrônica Básica]</t>
+          <t>[Guilherme-Eletro, Tiago P.-Sistemas de Refrigeração, -, Anderson J.-CAM]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Andre B.-Circuitos Elétrico</t>
+          <t>[João Paulo-Laboratório de Circuitos Elétricos, Renan-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-CAD, João Paulo-Laboratório de Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
+          <t>[-, Guilherme-Eletropneumática, Tiago P.-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Allan Cupertino-Instalções Elétricas, Weslei-CAD]</t>
+          <t>André B.-Circuitos Elétrico</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. Circuitos Elétricos, Allan Cupertino-Lab. De Máquinas elétricas]</t>
+          <t>[Guilherme-Eletropneumática, Anderson J.-CAM, Cleidson-Automação Industrial, -]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[-, Renan-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-CAD, João Paulo-Laboratório de Circuitos Elétricos]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, -, -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Emerson-Eletrônica Básica, Weslei-CAD]</t>
+          <t>[Tiago P.-Sistemas de Refrigeração, Guilherme-Eletro, -, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. Circuitos Elétricos, Allan Cupertino-Lab. De Máquinas elétricas]</t>
+          <t>[Guilherme-Eletropneumática, Anderson J.-CAM, Cleidson-Automação Industrial, Tiago P.-Sistemas de Refrigeração]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Allan Cupertino-Máquinas Elétri</t>
+          <t>[João Paulo-Laboratório de Circuitos Elétricos, -]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-CAD, Renan-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-CAM, Cleidson-Automação Industrial, Leandro-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
+          <t>Renan Campos-Máquinas Elétri</t>
         </is>
       </c>
     </row>

--- a/data/turm/ELM-2NA.xlsx
+++ b/data/turm/ELM-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Renan Campos-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Anderson J.-CAM, Guilherme-Eletropneumática, Cleidson-Automação Industrial, Cláudio-Tecnologia da Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, -, -, Cleidson-Automação Industrial]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Claudinei-CAD, Renan-Laboratório de Máquinas Elétricas]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>André B.-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletro, Tiago P.-Sistemas de Refrigeração, -, Anderson J.-CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Circuitos Elétricos, Renan-Laboratório de Máquinas Elétricas]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Claudinei-CAD, João Paulo-Laboratório de Circuitos Elétricos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, Guilherme-Eletropneumática, Tiago P.-Sistemas de Refrigeração, Cláudio-Tecnologia da Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>André B.-Circuitos Elétrico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletropneumática, Anderson J.-CAM, Cleidson-Automação Industrial, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, Renan-Laboratório de Máquinas Elétricas]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Claudinei-CAD, João Paulo-Laboratório de Circuitos Elétricos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem, Guilherme-Eletro, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Tiago P.-Sistemas de Refrigeração, Guilherme-Eletro, -, Cláudio-Tecnologia da Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Guilherme-Eletropneumática, Anderson J.-CAM, Cleidson-Automação Industrial, Tiago P.-Sistemas de Refrigeração]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Circuitos Elétricos, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Claudinei-CAD, Renan-Laboratório de Máquinas Elétricas]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Renan Campos-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
     </row>
